--- a/simulations/raw_inclusion_exclusion/Muthu_2021 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Muthu_2021 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.3214285714285715</v>
+        <v>0.3363095238095238</v>
       </c>
       <c r="D3">
-        <v>0.5833333333333334</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="E3">
-        <v>0.8839285714285714</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="F3">
         <v>0.9880952380952381</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.9970238095238095</v>
       </c>
       <c r="H3">
-        <v>0.3339463037881574</v>
+        <v>0.3251195292386907</v>
       </c>
       <c r="I3">
-        <v>0.2001503706812142</v>
+        <v>0.1912755030673621</v>
       </c>
       <c r="J3">
-        <v>0.2232142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K3">
-        <v>645.4583333333334</v>
+        <v>624.3095238095239</v>
       </c>
       <c r="L3">
         <v>33</v>
@@ -755,34 +755,34 @@
         <v>302</v>
       </c>
       <c r="Q3">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="R3">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="S3">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="T3">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="U3">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="V3">
-        <v>2299</v>
+        <v>2354</v>
       </c>
       <c r="W3">
-        <v>2257</v>
+        <v>2290</v>
       </c>
       <c r="X3">
-        <v>2034</v>
+        <v>2054</v>
       </c>
       <c r="Y3">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="Z3">
-        <v>1278</v>
+        <v>1295</v>
       </c>
       <c r="AA3">
         <v>303</v>
@@ -800,19 +800,19 @@
         <v>34</v>
       </c>
       <c r="AF3">
-        <v>0.96475</v>
+        <v>0.98783</v>
       </c>
       <c r="AG3">
-        <v>0.947125</v>
+        <v>0.960974</v>
       </c>
       <c r="AH3">
-        <v>0.853546</v>
+        <v>0.861939</v>
       </c>
       <c r="AI3">
-        <v>0.719261</v>
+        <v>0.718422</v>
       </c>
       <c r="AJ3">
-        <v>0.536299</v>
+        <v>0.5434330000000001</v>
       </c>
     </row>
   </sheetData>
